--- a/TestArbitr1.xlsx
+++ b/TestArbitr1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\UiPath\PWC-Arbitr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216736A-EC68-40EA-A00C-BFC159769446}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557975BF-4D81-4FAD-B41A-B0859F2F0085}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="5700" xr2:uid="{9F5A768C-78E6-4F53-8713-FC7B878311E1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Название компании</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>ООО «Воздушные ворота Северной Столицы»</t>
+  </si>
+  <si>
+    <t>ООО "Noname"</t>
   </si>
 </sst>
 </file>
@@ -59,7 +62,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -93,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018126E5-C30E-4B40-8416-6ED1CEEA1A7D}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -477,6 +480,14 @@
         <v>43081</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4352354308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
